--- a/biology/Botanique/Chénopode_botrys/Chénopode_botrys.xlsx
+++ b/biology/Botanique/Chénopode_botrys/Chénopode_botrys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A9nopode_botrys</t>
+          <t>Chénopode_botrys</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dysphania botrys, en français Ansérine à épis, Chénopode à grappes, Chénopode botryde ou Chénopode botrys, est une espèce de plantes à fleurs de la famille des Amaranthaceae et du genre Dysphania.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A9nopode_botrys</t>
+          <t>Chénopode_botrys</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est originaire d'Europe du Sud, du Moyen-Orient et d'Asie centrale, du Portugal à l'ouest, à la Mongolie à l'est, au sud jusqu'en Arabie, au nord jusqu'au Kazakhstan. Elle a été introduite en Amérique du Nord, en Europe du Nord et en Afrique du Nord[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire d'Europe du Sud, du Moyen-Orient et d'Asie centrale, du Portugal à l'ouest, à la Mongolie à l'est, au sud jusqu'en Arabie, au nord jusqu'au Kazakhstan. Elle a été introduite en Amérique du Nord, en Europe du Nord et en Afrique du Nord.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A9nopode_botrys</t>
+          <t>Chénopode_botrys</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été initialement classée dans le genre Chenopodium sous le basionyme Chenopodium botrys par le naturaliste suédois Carl von Linné en 1753. Elle est déplacée dans le genre Dysphania par Sergei Leonidovich Mosyakin et Steven Earl Clemants en 2002[2].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Herbe à printemps[2],[3], Piment botris[2], Chénopode botrys[2],[3], Chénopode botryde[2], Chénopode en grappe[2],[3], Ansérine à épis[3], Chénopode botride[3], Piment[3], Chénopode à grappes[4].
-Dysphania botrys a pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été initialement classée dans le genre Chenopodium sous le basionyme Chenopodium botrys par le naturaliste suédois Carl von Linné en 1753. Elle est déplacée dans le genre Dysphania par Sergei Leonidovich Mosyakin et Steven Earl Clemants en 2002.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Herbe à printemps Piment botris, Chénopode botrys Chénopode botryde, Chénopode en grappe Ansérine à épis, Chénopode botride, Piment, Chénopode à grappes.
+Dysphania botrys a pour synonymes :
 Ambrina botrys (L.) Moq.
 Ambrina foetida Moq.
 Atriplex botrys (L.) Crantz
